--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-19T15:02:19+00:00</t>
+    <t>2023-05-25T14:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T14:49:04+00:00</t>
+    <t>2023-05-25T15:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T15:18:34+00:00</t>
+    <t>2023-05-26T07:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T07:34:33+00:00</t>
+    <t>2023-05-30T07:39:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T07:39:15+00:00</t>
+    <t>2023-05-30T09:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-19T09:14:41+00:00</t>
+    <t>2023-06-21T13:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1318,7 +1318,7 @@
     <t>The resource that is the target of the action (e.g. CommunicationRequest).</t>
   </si>
   <si>
-    <t>The target resource SHALL be a [Request](request.html) resource with a Request.intent set to "option".</t>
+    <t>The target resource SHALL be a [Request](http://hl7.org/fhir/R5/request.html) resource with a Request.intent set to "option".</t>
   </si>
   <si>
     <t xml:space="preserve">rqg-1

--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T13:25:12+00:00</t>
+    <t>2023-06-21T13:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T13:54:25+00:00</t>
+    <t>2023-08-16T07:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>

--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T07:59:44+00:00</t>
+    <t>2023-08-22T11:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>FHIR Base Profile for Medication List when ordering in LINCA system</t>
+    <t>FHIR Base Profile for Medication List when ordering in LINCA system. Each medication is a contained resource without an ID. On the LICA Server the contained resources are transformed individual LINCAOrderMedicationRequests with an ID.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -445,7 +445,7 @@
 requisition</t>
   </si>
   <si>
-    <t>Composite request this is part of</t>
+    <t>Identifier assigned by LINCA platform that is propagated to each medication request to maintain order encapsulation.</t>
   </si>
   <si>
     <t>A shared identifier common to multiple independent Request instances that were activated/authorized more or less simultaneously by a single author.  The presence of the same identifier on each request ties those requests together and may have business ramifications in terms of reporting of results, billing, etc.  E.g. a requisition number shared by a set of lab tests ordered together, or a prescription number shared by all meds ordered at one time.</t>

--- a/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-lincaorder-order-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Order Request</t>
+    <t>LINCA Order (LINCARequestOrchestration)</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:05:59+00:00</t>
+    <t>2023-08-23T16:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>FHIR Base Profile for Medication List when ordering in LINCA system. Each medication is a contained resource without an ID. On the LICA Server the contained resources are transformed individual LINCAOrderMedicationRequests with an ID.</t>
+    <t>The placer's software creates the RequestOrchestration when (re)ordering medication.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -139,6 +139,10 @@
     <t>A set of related requests that can be used to capture intended activities that have inter-dependencies such as "give this medication after that one".</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -273,18 +277,18 @@
     <t>RequestOrchestration.contained</t>
   </si>
   <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
+    <t>Prescription
+Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationRequest {http://fhir.hl7.at/linkedcare/StructureDefinition/lincaorder-medication-request}
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+    <t>Individual order items (LINCAOrderMedicationRequest). Will be instantiated on the Linked Care Platform.</t>
+  </si>
+  <si>
+    <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
   </si>
   <si>
     <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
@@ -293,11 +297,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>dom-2
-dom-4dom-3dom-5</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>clinical.medication</t>
+  </si>
+  <si>
+    <t>Entity, Role, or Act,CombinedMedicationRequest</t>
   </si>
   <si>
     <t>RequestOrchestration.extension</t>
@@ -327,6 +330,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>RequestOrchestration.modifierExtension</t>
   </si>
   <si>
@@ -445,7 +451,7 @@
 requisition</t>
   </si>
   <si>
-    <t>Identifier assigned by LINCA platform that is propagated to each medication request to maintain order encapsulation.</t>
+    <t>Composite request this is part of</t>
   </si>
   <si>
     <t>A shared identifier common to multiple independent Request instances that were activated/authorized more or less simultaneously by a single author.  The presence of the same identifier on each request ties those requests together and may have business ramifications in terms of reporting of results, billing, etc.  E.g. a requisition number shared by a set of lab tests ordered together, or a prescription number shared by all meds ordered at one time.</t>
@@ -567,11 +573,11 @@
     <t>RequestOrchestration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|Device|Group|HealthcareService|Location|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(CareTeam|Organization)
 </t>
   </si>
   <si>
-    <t>Who the request orchestration is about</t>
+    <t>Who created the order</t>
   </si>
   <si>
     <t>The subject for which the request orchestration was created.</t>
@@ -1719,7 +1725,7 @@
   <cols>
     <col min="1" max="1" width="58.15234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="58.15234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -1752,8 +1758,8 @@
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="28.94140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="17.33203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="37.5078125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="18.1953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1853,24 +1859,24 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1881,7 +1887,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1890,19 +1896,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1952,13 +1958,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1978,10 +1984,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1992,7 +1998,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2001,16 +2007,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2061,19 +2067,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2087,10 +2093,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2101,28 +2107,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2172,19 +2178,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -2198,10 +2204,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2212,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -2224,16 +2230,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2259,13 +2265,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -2283,19 +2289,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2309,21 +2315,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -2335,16 +2341,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2394,19 +2400,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -2415,23 +2421,23 @@
         <v>35</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -2446,16 +2452,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2505,7 +2511,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2514,31 +2520,31 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2557,16 +2563,16 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2616,7 +2622,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2628,7 +2634,7 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2637,19 +2643,19 @@
         <v>35</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2662,25 +2668,25 @@
         <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2729,7 +2735,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2741,7 +2747,7 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -2750,15 +2756,15 @@
         <v>35</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2778,20 +2784,20 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>35</v>
@@ -2840,7 +2846,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2852,13 +2858,13 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>35</v>
@@ -2866,10 +2872,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2889,16 +2895,16 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2949,7 +2955,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2961,10 +2967,10 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>35</v>
@@ -2975,10 +2981,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2998,16 +3004,16 @@
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3058,7 +3064,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3070,10 +3076,10 @@
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>35</v>
@@ -3084,14 +3090,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3110,17 +3116,17 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>35</v>
@@ -3169,7 +3175,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3181,10 +3187,10 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>35</v>
@@ -3195,14 +3201,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3221,19 +3227,19 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>35</v>
@@ -3282,7 +3288,7 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3294,10 +3300,10 @@
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
@@ -3308,21 +3314,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -3331,22 +3337,22 @@
         <v>35</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -3395,22 +3401,22 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>35</v>
@@ -3421,10 +3427,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3432,28 +3438,28 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3480,13 +3486,13 @@
         <v>35</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>35</v>
@@ -3504,25 +3510,25 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>35</v>
@@ -3530,43 +3536,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>35</v>
@@ -3576,7 +3582,7 @@
         <v>35</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>35</v>
@@ -3591,13 +3597,13 @@
         <v>35</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>35</v>
@@ -3615,25 +3621,25 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>35</v>
@@ -3641,10 +3647,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3655,7 +3661,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>35</v>
@@ -3664,16 +3670,16 @@
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3681,7 +3687,7 @@
         <v>35</v>
       </c>
       <c r="Q18" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>35</v>
@@ -3702,13 +3708,13 @@
         <v>35</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>35</v>
@@ -3726,25 +3732,25 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>35</v>
@@ -3752,10 +3758,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3766,7 +3772,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>
@@ -3775,19 +3781,19 @@
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3813,11 +3819,11 @@
         <v>35</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>35</v>
@@ -3835,25 +3841,25 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>35</v>
@@ -3861,10 +3867,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3872,10 +3878,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>35</v>
@@ -3887,13 +3893,13 @@
         <v>35</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3944,25 +3950,25 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>35</v>
@@ -3970,10 +3976,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3984,7 +3990,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -3996,13 +4002,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4053,25 +4059,25 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>35</v>
@@ -4079,10 +4085,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4093,7 +4099,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
@@ -4105,13 +4111,13 @@
         <v>35</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4162,25 +4168,25 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>35</v>
@@ -4188,10 +4194,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4202,7 +4208,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>35</v>
@@ -4214,13 +4220,13 @@
         <v>35</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4271,25 +4277,25 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>35</v>
@@ -4297,10 +4303,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4323,13 +4329,13 @@
         <v>35</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4356,11 +4362,11 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -4378,7 +4384,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4390,13 +4396,13 @@
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>35</v>
@@ -4404,10 +4410,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4430,13 +4436,13 @@
         <v>35</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4487,7 +4493,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4499,24 +4505,24 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4539,13 +4545,13 @@
         <v>35</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4596,7 +4602,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4608,10 +4614,10 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>35</v>
@@ -4622,10 +4628,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4648,13 +4654,13 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4705,7 +4711,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -4717,7 +4723,7 @@
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>35</v>
@@ -4731,10 +4737,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4745,7 +4751,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -4757,13 +4763,13 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4814,16 +4820,16 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>35</v>
@@ -4835,19 +4841,19 @@
         <v>35</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4866,16 +4872,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4925,7 +4931,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -4937,7 +4943,7 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>35</v>
@@ -4946,19 +4952,19 @@
         <v>35</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4971,25 +4977,25 @@
         <v>35</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>35</v>
@@ -5038,7 +5044,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -5050,7 +5056,7 @@
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>35</v>
@@ -5059,15 +5065,15 @@
         <v>35</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5078,7 +5084,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>35</v>
@@ -5090,13 +5096,13 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5147,19 +5153,19 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
@@ -5168,15 +5174,15 @@
         <v>35</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5187,7 +5193,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
@@ -5199,13 +5205,13 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5256,19 +5262,19 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>35</v>
@@ -5282,10 +5288,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5296,7 +5302,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>35</v>
@@ -5308,13 +5314,13 @@
         <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5365,19 +5371,19 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
@@ -5391,10 +5397,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5405,7 +5411,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5414,16 +5420,16 @@
         <v>35</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5474,19 +5480,19 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
@@ -5500,10 +5506,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5514,7 +5520,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -5523,16 +5529,16 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5583,19 +5589,19 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
@@ -5609,10 +5615,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5623,7 +5629,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -5635,13 +5641,13 @@
         <v>35</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5668,13 +5674,13 @@
         <v>35</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>35</v>
@@ -5692,22 +5698,22 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>35</v>
@@ -5718,10 +5724,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5744,13 +5750,13 @@
         <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5777,11 +5783,11 @@
         <v>35</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>35</v>
@@ -5799,7 +5805,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -5811,10 +5817,10 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>35</v>
@@ -5825,10 +5831,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5851,13 +5857,13 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5908,7 +5914,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -5920,10 +5926,10 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>35</v>
@@ -5934,10 +5940,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5960,13 +5966,13 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6017,7 +6023,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6029,24 +6035,24 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6069,16 +6075,16 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6128,7 +6134,7 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6140,7 +6146,7 @@
         <v>35</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>35</v>
@@ -6154,10 +6160,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6168,7 +6174,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>35</v>
@@ -6180,13 +6186,13 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6237,16 +6243,16 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>35</v>
@@ -6258,19 +6264,19 @@
         <v>35</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6289,16 +6295,16 @@
         <v>35</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6348,7 +6354,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6360,7 +6366,7 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
@@ -6369,19 +6375,19 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6394,25 +6400,25 @@
         <v>35</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>35</v>
@@ -6461,7 +6467,7 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -6473,7 +6479,7 @@
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
@@ -6482,15 +6488,15 @@
         <v>35</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6498,10 +6504,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -6513,16 +6519,16 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6548,13 +6554,13 @@
         <v>35</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>35</v>
@@ -6572,19 +6578,19 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
@@ -6598,10 +6604,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6612,7 +6618,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>35</v>
@@ -6624,16 +6630,16 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6683,19 +6689,19 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -6709,10 +6715,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6735,13 +6741,13 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6792,7 +6798,7 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -6804,7 +6810,7 @@
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -6813,15 +6819,15 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6832,7 +6838,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>35</v>
@@ -6844,13 +6850,13 @@
         <v>35</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6901,16 +6907,16 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>35</v>
@@ -6922,19 +6928,19 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6953,16 +6959,16 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7012,7 +7018,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -7024,7 +7030,7 @@
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -7033,19 +7039,19 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7058,25 +7064,25 @@
         <v>35</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -7125,7 +7131,7 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7137,7 +7143,7 @@
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -7146,15 +7152,15 @@
         <v>35</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7165,7 +7171,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -7177,13 +7183,13 @@
         <v>35</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7234,19 +7240,19 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -7255,15 +7261,15 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7274,7 +7280,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -7286,13 +7292,13 @@
         <v>35</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7343,19 +7349,19 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -7364,15 +7370,15 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7383,7 +7389,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>35</v>
@@ -7395,16 +7401,16 @@
         <v>35</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7454,19 +7460,19 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
@@ -7475,15 +7481,15 @@
         <v>35</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7506,13 +7512,13 @@
         <v>35</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7563,7 +7569,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7575,7 +7581,7 @@
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -7584,15 +7590,15 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7603,7 +7609,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>35</v>
@@ -7615,13 +7621,13 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7672,16 +7678,16 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>35</v>
@@ -7693,19 +7699,19 @@
         <v>35</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7724,16 +7730,16 @@
         <v>35</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7783,7 +7789,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -7795,7 +7801,7 @@
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -7804,19 +7810,19 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7829,25 +7835,25 @@
         <v>35</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>35</v>
@@ -7896,7 +7902,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -7908,7 +7914,7 @@
         <v>35</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>35</v>
@@ -7917,15 +7923,15 @@
         <v>35</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7936,7 +7942,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>35</v>
@@ -7948,13 +7954,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8005,19 +8011,19 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>35</v>
@@ -8026,15 +8032,15 @@
         <v>35</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8045,7 +8051,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>35</v>
@@ -8057,13 +8063,13 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8114,19 +8120,19 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
@@ -8135,15 +8141,15 @@
         <v>35</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8154,7 +8160,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>35</v>
@@ -8166,16 +8172,16 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8225,19 +8231,19 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>35</v>
@@ -8246,15 +8252,15 @@
         <v>35</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8277,13 +8283,13 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8334,7 +8340,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -8346,7 +8352,7 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
@@ -8360,10 +8366,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8374,7 +8380,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>35</v>
@@ -8386,13 +8392,13 @@
         <v>35</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8443,16 +8449,16 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>35</v>
@@ -8464,19 +8470,19 @@
         <v>35</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8495,16 +8501,16 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8554,7 +8560,7 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -8566,7 +8572,7 @@
         <v>35</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>35</v>
@@ -8575,19 +8581,19 @@
         <v>35</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8600,25 +8606,25 @@
         <v>35</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>35</v>
@@ -8667,7 +8673,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -8679,7 +8685,7 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
@@ -8688,15 +8694,15 @@
         <v>35</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8704,10 +8710,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>35</v>
@@ -8719,13 +8725,13 @@
         <v>35</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8776,19 +8782,19 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>35</v>
@@ -8802,10 +8808,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8813,10 +8819,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>35</v>
@@ -8828,13 +8834,13 @@
         <v>35</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8861,13 +8867,13 @@
         <v>35</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>35</v>
@@ -8885,19 +8891,19 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>35</v>
@@ -8911,10 +8917,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8925,7 +8931,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>35</v>
@@ -8937,13 +8943,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8970,13 +8976,13 @@
         <v>35</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>35</v>
@@ -8994,19 +9000,19 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>35</v>
@@ -9015,15 +9021,15 @@
         <v>35</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9034,7 +9040,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>35</v>
@@ -9046,13 +9052,13 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9103,19 +9109,19 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
@@ -9129,10 +9135,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9143,7 +9149,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>35</v>
@@ -9155,19 +9161,19 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>35</v>
@@ -9216,22 +9222,22 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>35</v>
@@ -9242,21 +9248,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>35</v>
@@ -9268,19 +9274,19 @@
         <v>35</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>35</v>
@@ -9329,19 +9335,19 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>35</v>
@@ -9350,15 +9356,15 @@
         <v>35</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9381,16 +9387,16 @@
         <v>35</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9440,7 +9446,7 @@
         <v>35</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -9452,13 +9458,13 @@
         <v>35</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>35</v>
@@ -9466,10 +9472,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9480,7 +9486,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>35</v>
@@ -9492,13 +9498,13 @@
         <v>35</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9549,16 +9555,16 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>35</v>
@@ -9570,19 +9576,19 @@
         <v>35</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9601,16 +9607,16 @@
         <v>35</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9660,7 +9666,7 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -9672,7 +9678,7 @@
         <v>35</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>35</v>
@@ -9681,19 +9687,19 @@
         <v>35</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9706,25 +9712,25 @@
         <v>35</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>35</v>
@@ -9773,7 +9779,7 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -9785,7 +9791,7 @@
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
@@ -9794,15 +9800,15 @@
         <v>35</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9813,7 +9819,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>35</v>
@@ -9825,13 +9831,13 @@
         <v>35</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9858,13 +9864,13 @@
         <v>35</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>35</v>
@@ -9882,19 +9888,19 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
@@ -9903,15 +9909,15 @@
         <v>35</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9922,7 +9928,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>35</v>
@@ -9934,13 +9940,13 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9991,19 +9997,19 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
@@ -10012,15 +10018,15 @@
         <v>35</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10031,7 +10037,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>35</v>
@@ -10043,16 +10049,16 @@
         <v>35</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10102,19 +10108,19 @@
         <v>35</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>35</v>
@@ -10123,15 +10129,15 @@
         <v>35</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10142,7 +10148,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>35</v>
@@ -10154,13 +10160,13 @@
         <v>35</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10187,13 +10193,13 @@
         <v>35</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>35</v>
@@ -10211,19 +10217,19 @@
         <v>35</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>35</v>
@@ -10232,15 +10238,15 @@
         <v>35</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10251,7 +10257,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>35</v>
@@ -10263,13 +10269,13 @@
         <v>35</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10296,11 +10302,11 @@
         <v>35</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>35</v>
@@ -10318,19 +10324,19 @@
         <v>35</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>35</v>
@@ -10339,15 +10345,15 @@
         <v>35</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10358,7 +10364,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>35</v>
@@ -10370,13 +10376,13 @@
         <v>35</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10427,19 +10433,19 @@
         <v>35</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>35</v>
@@ -10448,15 +10454,15 @@
         <v>35</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10467,7 +10473,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>35</v>
@@ -10479,13 +10485,13 @@
         <v>35</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10512,13 +10518,13 @@
         <v>35</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>35</v>
@@ -10536,19 +10542,19 @@
         <v>35</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>35</v>
@@ -10562,10 +10568,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10576,7 +10582,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>35</v>
@@ -10588,13 +10594,13 @@
         <v>35</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10621,13 +10627,13 @@
         <v>35</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>35</v>
@@ -10645,19 +10651,19 @@
         <v>35</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>35</v>
@@ -10671,10 +10677,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10685,7 +10691,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>35</v>
@@ -10697,13 +10703,13 @@
         <v>35</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10730,13 +10736,13 @@
         <v>35</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>35</v>
@@ -10754,19 +10760,19 @@
         <v>35</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>35</v>
@@ -10780,10 +10786,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10794,7 +10800,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>35</v>
@@ -10806,13 +10812,13 @@
         <v>35</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10839,13 +10845,13 @@
         <v>35</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>35</v>
@@ -10863,19 +10869,19 @@
         <v>35</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>35</v>
@@ -10889,10 +10895,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10903,7 +10909,7 @@
         <v>36</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>35</v>
@@ -10915,13 +10921,13 @@
         <v>35</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10948,13 +10954,13 @@
         <v>35</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>35</v>
@@ -10972,19 +10978,19 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>35</v>
@@ -10998,10 +11004,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11012,7 +11018,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>35</v>
@@ -11024,13 +11030,13 @@
         <v>35</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11057,13 +11063,13 @@
         <v>35</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>35</v>
@@ -11081,19 +11087,19 @@
         <v>35</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>35</v>
@@ -11107,10 +11113,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11121,7 +11127,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>35</v>
@@ -11133,16 +11139,16 @@
         <v>35</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11192,19 +11198,19 @@
         <v>35</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>35</v>
@@ -11218,10 +11224,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11232,7 +11238,7 @@
         <v>36</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>35</v>
@@ -11244,16 +11250,16 @@
         <v>35</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11303,19 +11309,19 @@
         <v>35</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>35</v>
@@ -11324,15 +11330,15 @@
         <v>35</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11343,7 +11349,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>35</v>
@@ -11355,16 +11361,16 @@
         <v>35</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11414,19 +11420,19 @@
         <v>35</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>35</v>
@@ -11435,15 +11441,15 @@
         <v>35</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11466,16 +11472,16 @@
         <v>35</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11525,7 +11531,7 @@
         <v>35</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>36</v>
@@ -11537,7 +11543,7 @@
         <v>35</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>35</v>
@@ -11546,15 +11552,15 @@
         <v>35</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11565,7 +11571,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>35</v>
@@ -11577,13 +11583,13 @@
         <v>35</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11634,16 +11640,16 @@
         <v>35</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>35</v>
@@ -11655,19 +11661,19 @@
         <v>35</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11686,16 +11692,16 @@
         <v>35</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11745,7 +11751,7 @@
         <v>35</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>36</v>
@@ -11757,7 +11763,7 @@
         <v>35</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>35</v>
@@ -11766,19 +11772,19 @@
         <v>35</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -11791,25 +11797,25 @@
         <v>35</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>35</v>
@@ -11858,7 +11864,7 @@
         <v>35</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>36</v>
@@ -11870,7 +11876,7 @@
         <v>35</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>35</v>
@@ -11879,15 +11885,15 @@
         <v>35</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11898,7 +11904,7 @@
         <v>36</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>35</v>
@@ -11910,16 +11916,16 @@
         <v>35</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11969,19 +11975,19 @@
         <v>35</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>35</v>
@@ -11990,15 +11996,15 @@
         <v>35</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12009,7 +12015,7 @@
         <v>36</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>35</v>
@@ -12021,16 +12027,16 @@
         <v>35</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12080,19 +12086,19 @@
         <v>35</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>35</v>
@@ -12101,15 +12107,15 @@
         <v>35</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12135,10 +12141,10 @@
         <v>38</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12189,7 +12195,7 @@
         <v>35</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>36</v>
@@ -12201,7 +12207,7 @@
         <v>35</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>35</v>
